--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\109\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797BFE95-19C7-4AED-8B82-02D6122AF809}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B071A60-52F6-4DC1-9FA3-FF3AED7AD265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>No.</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Q 06</t>
+  </si>
+  <si>
+    <t>Q 07</t>
+  </si>
+  <si>
+    <t>Q 09</t>
+  </si>
+  <si>
+    <t>Q 08</t>
   </si>
 </sst>
 </file>
@@ -87,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -98,6 +107,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFD7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -167,9 +182,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -189,8 +201,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,682 +590,783 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125"/>
-    <col min="7" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" customWidth="1"/>
-    <col min="12" max="15" width="9.5703125" customWidth="1"/>
-    <col min="16" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
         <f>(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="1">
         <f>(25/29)*10</f>
         <v>8.6206896551724128</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <f>(3/7)*10</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="J2" s="1">
+        <f>(2/3)*10</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <f>(3/4)*10</f>
         <v>7.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G10" si="0">(4/5)*10</f>
-        <v>8</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H10" si="0">(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <f>(4/7)*10</f>
+        <v>5.7142857142857135</v>
+      </c>
+      <c r="J3" s="1">
+        <f>(2/3)*10</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <f>(3/4)*10</f>
         <v>7.5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="1">
         <f>(27/29)*10</f>
         <v>9.3103448275862064</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="1">
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <f>(4/5)*10</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(5/7)*10</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="J4" s="1">
+        <f>(3/3)*10</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f>(3/4)*10</f>
         <v>7.5</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <f>(2/5)*10</f>
         <v>4</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <f>(5/7)*10</f>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="J5" s="1">
+        <f>(1/3)*10</f>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="1">
         <f>(27/29)*10</f>
         <v>9.3103448275862064</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <f>(7/7)*10</f>
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J10" si="1">(2/3)*10</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <f>(1/3)*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="1">
         <f>(27/29)*10</f>
         <v>9.3103448275862064</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <f>(6/7)*10</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
         <f>(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="1">
         <f>(24/29)*10</f>
         <v>8.2758620689655178</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>(6/7)*10</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f>(3/4)*10</f>
         <v>7.5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="1">
         <f>(23/29)*10</f>
         <v>7.931034482758621</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="I9" s="1">
+        <f>(7/7)*10</f>
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f>(4/4)*10</f>
         <v>10</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <f>(5/5)*10</f>
         <v>10</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="1">
         <f>(26/29)*10</f>
         <v>8.9655172413793096</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="1">
         <f>(4/5)*10</f>
         <v>8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="I10" s="1">
+        <f>(7/7)*10</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="5">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>1</v>
       </c>
-      <c r="B14" s="10">
-        <f>SUM(B2:G2)</f>
-        <v>52.620689655172413</v>
-      </c>
-      <c r="C14" s="11">
+      <c r="B14" s="9">
+        <f>SUM(B2:J2)</f>
+        <v>73.573070607553376</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12">
         <f>(B14*45)/B11</f>
-        <v>39.46551724137931</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
+        <v>36.786535303776688</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
-        <f>C14+D14+E14</f>
-        <v>39.46551724137931</v>
-      </c>
-      <c r="G14" s="12">
-        <f>((F14-F23)*50)/(F24-F23)+50</f>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f>D14+E14+F14</f>
+        <v>36.786535303776688</v>
+      </c>
+      <c r="H14" s="10">
+        <f>((G14-G23)*50)/(G24-G23)+50</f>
+        <v>91.156170346822478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <f>SUM(B3:J3)</f>
+        <v>53.88095238095238</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="12">
+        <f>(B15*45)/B11</f>
+        <v>26.940476190476186</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <f>D15+E15+F15</f>
+        <v>26.940476190476186</v>
+      </c>
+      <c r="H15" s="10">
+        <f>((G15-G23)*50)/(G24-G23)+50</f>
+        <v>56.81043617722024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="9">
+        <f>SUM(B4:J4)</f>
+        <v>74.619868637110017</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="12">
+        <f>(B16*45)/B11</f>
+        <v>37.309934318555008</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <f>D16+E16+F16</f>
+        <v>37.309934318555008</v>
+      </c>
+      <c r="H16" s="10">
+        <f>((G16-G23)*50)/(G24-G23)+50</f>
+        <v>92.981928573474221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" ref="B15:B22" si="2">SUM(B5:J5)</f>
+        <v>49.976190476190482</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="12">
+        <f>(B17*45)/B11</f>
+        <v>24.988095238095241</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <f>D17+E17+F17</f>
+        <v>24.988095238095241</v>
+      </c>
+      <c r="H17" s="10">
+        <f>((G17-G23)*50)/(G24-G23)+50</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="9">
+        <f t="shared" si="2"/>
+        <v>78.643678160919549</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="12">
+        <f>(B18*45)/B11</f>
+        <v>39.321839080459775</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" ref="G18" si="3">D18+E18+F18+M6</f>
+        <v>39.321839080459775</v>
+      </c>
+      <c r="H18" s="10">
+        <f>((G18-G23)*50)/(G24-G23)+50</f>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>2</v>
-      </c>
-      <c r="B15" s="10">
-        <f>SUM(B3:G3)</f>
-        <v>31.5</v>
-      </c>
-      <c r="C15" s="11">
-        <f>(B15*45)/B11</f>
-        <v>23.625</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <f>C15+D15+E15</f>
-        <v>23.625</v>
-      </c>
-      <c r="G15" s="12">
-        <f>((F15-F23)*50)/(F24-F23)+50</f>
-        <v>54.325130499627143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>3</v>
-      </c>
-      <c r="B16" s="10">
-        <f>SUM(B4:G4)</f>
-        <v>47.477011494252871</v>
-      </c>
-      <c r="C16" s="11">
-        <f>(B16*45)/B11</f>
-        <v>35.607758620689651</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7">
-        <f>C16+D16+E16</f>
-        <v>35.607758620689651</v>
-      </c>
-      <c r="G16" s="12">
-        <f>((F16-F23)*50)/(F24-F23)+50</f>
-        <v>88.876460352970412</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>4</v>
-      </c>
-      <c r="B17" s="10">
-        <f>SUM(B5:G5)</f>
-        <v>29.5</v>
-      </c>
-      <c r="C17" s="11">
-        <f>(B17*45)/B11</f>
-        <v>22.125</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="7">
-        <f>C17+D17+E17</f>
-        <v>22.125</v>
-      </c>
-      <c r="G17" s="12">
-        <f>((F17-F23)*50)/(F24-F23)+50</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>5</v>
-      </c>
-      <c r="B18" s="10">
-        <f t="shared" ref="B15:B22" si="1">SUM(B6:G6)</f>
-        <v>51.977011494252871</v>
-      </c>
-      <c r="C18" s="11">
-        <f>(B18*45)/B11</f>
-        <v>38.982758620689651</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" ref="F14:F22" si="2">C18+D18+E18+L6</f>
-        <v>38.982758620689651</v>
-      </c>
-      <c r="G18" s="12">
-        <f>((F18-F23)*50)/(F24-F23)+50</f>
-        <v>98.608003977131489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>6</v>
       </c>
-      <c r="B19" s="10">
-        <f t="shared" si="1"/>
-        <v>48.643678160919535</v>
-      </c>
-      <c r="C19" s="11">
+      <c r="B19" s="9">
+        <f t="shared" si="2"/>
+        <v>73.88177339901479</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="12">
         <f>(B19*45)/B11</f>
-        <v>36.482758620689651</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
+        <v>36.940886699507395</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="7">
-        <f>C19+D19+E19</f>
-        <v>36.482758620689651</v>
-      </c>
-      <c r="G19" s="12">
-        <f>((F19-F23)*50)/(F24-F23)+50</f>
-        <v>91.399453144419567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f>D19+E19+F19</f>
+        <v>36.940886699507395</v>
+      </c>
+      <c r="H19" s="10">
+        <f>((G19-G23)*50)/(G24-G23)+50</f>
+        <v>91.69459002778018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>7</v>
       </c>
-      <c r="B20" s="10">
-        <f t="shared" si="1"/>
-        <v>52.275862068965516</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B20" s="9">
+        <f t="shared" si="2"/>
+        <v>77.513957307060764</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="12">
         <f>(B20*45)/B11</f>
-        <v>39.206896551724142</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
+        <v>38.756978653530382</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="7">
-        <f>C20+D20+E20</f>
-        <v>39.206896551724142</v>
-      </c>
-      <c r="G20" s="12">
-        <f>((F20-F23)*50)/(F24-F23)+50</f>
-        <v>99.254287844891877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>8</v>
-      </c>
-      <c r="B21" s="10">
-        <f t="shared" si="1"/>
-        <v>48.097701149425284</v>
-      </c>
-      <c r="C21" s="11">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <f>D20+E20+F20</f>
+        <v>38.756978653530382</v>
+      </c>
+      <c r="H20" s="10">
+        <f>((G20-G23)*50)/(G24-G23)+50</f>
+        <v>98.02961308245267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>8</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="2"/>
+        <v>74.764367816091962</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="12">
         <f>(B21*45)/B11</f>
-        <v>36.073275862068961</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>37.382183908045981</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="7">
-        <f>C21+D21+E21</f>
-        <v>36.073275862068961</v>
-      </c>
-      <c r="G21" s="12">
-        <f>((F21-F23)*50)/(F24-F23)+50</f>
-        <v>90.218742232165042</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f>D21+E21+F21</f>
+        <v>37.382183908045981</v>
+      </c>
+      <c r="H21" s="10">
+        <f>((G21-G23)*50)/(G24-G23)+50</f>
+        <v>93.233954807114003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>9</v>
       </c>
-      <c r="B22" s="10">
-        <f>SUM(B10:G10)</f>
-        <v>51.632183908045974</v>
-      </c>
-      <c r="C22" s="11">
+      <c r="B22" s="9">
+        <f>SUM(B10:J10)</f>
+        <v>78.298850574712645</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="12">
         <f>(B22*45)/B11</f>
-        <v>38.724137931034484</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>39.149425287356323</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="7">
-        <f>C22+D22+E22</f>
-        <v>38.724137931034484</v>
-      </c>
-      <c r="G22" s="12">
-        <f>((F22-F23)*50)/(F24-F23)+50</f>
-        <v>97.862291822023366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="9" t="s">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <f>D22+E22+F22</f>
+        <v>39.149425287356323</v>
+      </c>
+      <c r="H22" s="10">
+        <f>((G22-G23)*50)/(G24-G23)+50</f>
+        <v>99.398573760632345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="9">
-        <f>MIN(F14:F22)</f>
-        <v>22.125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9">
-        <f>MAX(F14:F22)</f>
-        <v>39.46551724137931</v>
+      <c r="G23" s="8">
+        <f>MIN(G14:G22)</f>
+        <v>24.988095238095241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F24" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8">
+        <f>MAX(G14:G22)</f>
+        <v>39.321839080459775</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\109\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B071A60-52F6-4DC1-9FA3-FF3AED7AD265}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="web 109" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>No.</t>
   </si>
@@ -87,12 +86,21 @@
   </si>
   <si>
     <t>Q 08</t>
+  </si>
+  <si>
+    <t>H 02</t>
+  </si>
+  <si>
+    <t>H 03</t>
+  </si>
+  <si>
+    <t>H 05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -202,10 +210,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -589,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,9 +650,15 @@
       <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -689,8 +703,15 @@
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -732,8 +753,15 @@
         <f>(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="K3" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <v>11</v>
+      </c>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -777,8 +805,15 @@
         <f>(3/3)*10</f>
         <v>10</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="K4" s="1">
+        <v>10</v>
+      </c>
+      <c r="L4" s="1">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1">
+        <v>11</v>
+      </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -820,8 +855,15 @@
         <f>(1/3)*10</f>
         <v>3.333333333333333</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -865,8 +907,15 @@
         <f t="shared" ref="J6:J10" si="1">(2/3)*10</f>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="K6" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="L6" s="1">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1">
+        <v>11</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -910,8 +959,15 @@
         <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1">
+        <v>11</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -955,8 +1011,15 @@
         <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1000,8 +1063,15 @@
         <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="K9" s="1">
+        <v>10</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <v>10</v>
+      </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1045,8 +1115,15 @@
         <f t="shared" si="1"/>
         <v>6.6666666666666661</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="K10" s="1">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>10</v>
+      </c>
+      <c r="M10" s="1">
+        <v>10</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1056,17 +1133,17 @@
         <v>1</v>
       </c>
       <c r="B11" s="5">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1097,13 +1174,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="9">
-        <f>SUM(B2:J2)</f>
-        <v>73.573070607553376</v>
+        <f>SUM(B2:M2)</f>
+        <v>103.57307060755338</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f>(B14*45)/B11</f>
-        <v>36.786535303776688</v>
+        <v>38.83990147783252</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1113,11 +1190,11 @@
       </c>
       <c r="G14" s="6">
         <f>D14+E14+F14</f>
-        <v>36.786535303776688</v>
+        <v>38.83990147783252</v>
       </c>
       <c r="H14" s="10">
         <f>((G14-G23)*50)/(G24-G23)+50</f>
-        <v>91.156170346822478</v>
+        <v>79.611267350086194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1125,13 +1202,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="9">
-        <f>SUM(B3:J3)</f>
-        <v>53.88095238095238</v>
+        <f>SUM(B3:M3)</f>
+        <v>79.38095238095238</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f>(B15*45)/B11</f>
-        <v>26.940476190476186</v>
+        <v>29.767857142857142</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1141,11 +1218,11 @@
       </c>
       <c r="G15" s="6">
         <f>D15+E15+F15</f>
-        <v>26.940476190476186</v>
+        <v>29.767857142857142</v>
       </c>
       <c r="H15" s="10">
         <f>((G15-G23)*50)/(G24-G23)+50</f>
-        <v>56.81043617722024</v>
+        <v>66.245577429012059</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1153,13 +1230,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="9">
-        <f>SUM(B4:J4)</f>
-        <v>74.619868637110017</v>
+        <f>SUM(B4:M4)</f>
+        <v>105.61986863711002</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f>(B16*45)/B11</f>
-        <v>37.309934318555008</v>
+        <v>39.607450738916256</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1169,11 +1246,11 @@
       </c>
       <c r="G16" s="6">
         <f>D16+E16+F16</f>
-        <v>37.309934318555008</v>
+        <v>39.607450738916256</v>
       </c>
       <c r="H16" s="10">
         <f>((G16-G23)*50)/(G24-G23)+50</f>
-        <v>92.981928573474221</v>
+        <v>80.742084731924152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,13 +1258,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" ref="B15:B22" si="2">SUM(B5:J5)</f>
+        <f>SUM(B5:M5)</f>
         <v>49.976190476190482</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f>(B17*45)/B11</f>
-        <v>24.988095238095241</v>
+        <v>18.741071428571431</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1197,7 +1274,7 @@
       </c>
       <c r="G17" s="6">
         <f>D17+E17+F17</f>
-        <v>24.988095238095241</v>
+        <v>18.741071428571431</v>
       </c>
       <c r="H17" s="10">
         <f>((G17-G23)*50)/(G24-G23)+50</f>
@@ -1209,13 +1286,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="9">
-        <f t="shared" si="2"/>
-        <v>78.643678160919549</v>
+        <f>SUM(B6:M6)</f>
+        <v>111.14367816091955</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f>(B18*45)/B11</f>
-        <v>39.321839080459775</v>
+        <v>41.678879310344833</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1224,8 +1301,8 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18" si="3">D18+E18+F18+M6</f>
-        <v>39.321839080459775</v>
+        <f t="shared" ref="G18" si="2">D18+E18+F18+M6</f>
+        <v>52.678879310344833</v>
       </c>
       <c r="H18" s="10">
         <f>((G18-G23)*50)/(G24-G23)+50</f>
@@ -1237,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="9">
-        <f t="shared" si="2"/>
-        <v>73.88177339901479</v>
+        <f>SUM(B7:M7)</f>
+        <v>104.88177339901479</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>(B19*45)/B11</f>
-        <v>36.940886699507395</v>
+        <v>39.330665024630548</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1253,11 +1330,11 @@
       </c>
       <c r="G19" s="6">
         <f>D19+E19+F19</f>
-        <v>36.940886699507395</v>
+        <v>39.330665024630548</v>
       </c>
       <c r="H19" s="10">
         <f>((G19-G23)*50)/(G24-G23)+50</f>
-        <v>91.69459002778018</v>
+        <v>80.334301006985399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1265,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="2"/>
-        <v>77.513957307060764</v>
+        <f>SUM(B8:M8)</f>
+        <v>81.013957307060764</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <f>(B20*45)/B11</f>
-        <v>38.756978653530382</v>
+        <v>30.38023399014779</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1281,11 +1358,11 @@
       </c>
       <c r="G20" s="6">
         <f>D20+E20+F20</f>
-        <v>38.756978653530382</v>
+        <v>30.38023399014779</v>
       </c>
       <c r="H20" s="10">
         <f>((G20-G23)*50)/(G24-G23)+50</f>
-        <v>98.02961308245267</v>
+        <v>67.147781910550663</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1293,13 +1370,13 @@
         <v>8</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="2"/>
-        <v>74.764367816091962</v>
+        <f>SUM(B9:M9)</f>
+        <v>104.76436781609196</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f>(B21*45)/B11</f>
-        <v>37.382183908045981</v>
+        <v>39.286637931034491</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1309,11 +1386,11 @@
       </c>
       <c r="G21" s="6">
         <f>D21+E21+F21</f>
-        <v>37.382183908045981</v>
+        <v>39.286637931034491</v>
       </c>
       <c r="H21" s="10">
         <f>((G21-G23)*50)/(G24-G23)+50</f>
-        <v>93.233954807114003</v>
+        <v>80.269436632495697</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1321,13 +1398,13 @@
         <v>9</v>
       </c>
       <c r="B22" s="9">
-        <f>SUM(B10:J10)</f>
-        <v>78.298850574712645</v>
+        <f>SUM(B10:M10)</f>
+        <v>105.29885057471265</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <f>(B22*45)/B11</f>
-        <v>39.149425287356323</v>
+        <v>39.487068965517238</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1337,11 +1414,11 @@
       </c>
       <c r="G22" s="6">
         <f>D22+E22+F22</f>
-        <v>39.149425287356323</v>
+        <v>39.487068965517238</v>
       </c>
       <c r="H22" s="10">
         <f>((G22-G23)*50)/(G24-G23)+50</f>
-        <v>99.398573760632345</v>
+        <v>80.564728295382366</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1350,7 +1427,7 @@
       </c>
       <c r="G23" s="8">
         <f>MIN(G14:G22)</f>
-        <v>24.988095238095241</v>
+        <v>18.741071428571431</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1359,7 +1436,7 @@
       </c>
       <c r="G24" s="8">
         <f>MAX(G14:G22)</f>
-        <v>39.321839080459775</v>
+        <v>52.678879310344833</v>
       </c>
     </row>
   </sheetData>

--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>No.</t>
   </si>
@@ -95,6 +95,24 @@
   </si>
   <si>
     <t>H 05</t>
+  </si>
+  <si>
+    <t>H 06</t>
+  </si>
+  <si>
+    <t>H 07</t>
+  </si>
+  <si>
+    <t>H 08</t>
+  </si>
+  <si>
+    <t>H 09</t>
+  </si>
+  <si>
+    <t>H 10</t>
+  </si>
+  <si>
+    <t>H 11</t>
   </si>
 </sst>
 </file>
@@ -598,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +637,7 @@
     <col min="17" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,12 +677,26 @@
       <c r="M1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -712,11 +744,26 @@
       <c r="M2" s="1">
         <v>10</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <v>9</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10</v>
+      </c>
+      <c r="P2" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -762,11 +809,26 @@
       <c r="M3" s="1">
         <v>11</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -814,11 +876,26 @@
       <c r="M4" s="1">
         <v>11</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N4" s="1">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1">
+        <v>11</v>
+      </c>
+      <c r="P4" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>13</v>
+      </c>
+      <c r="R4" s="1">
+        <v>11</v>
+      </c>
+      <c r="S4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -864,11 +941,26 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -916,11 +1008,26 @@
       <c r="M6" s="1">
         <v>11</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <v>11</v>
+      </c>
+      <c r="O6" s="1">
+        <v>5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>11</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -968,11 +1075,26 @@
       <c r="M7" s="1">
         <v>11</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>8</v>
+      </c>
+      <c r="S7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1020,11 +1142,26 @@
       <c r="M8" s="1">
         <v>0</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1072,11 +1209,26 @@
       <c r="M9" s="1">
         <v>10</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <v>10</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1124,11 +1276,26 @@
       <c r="M10" s="1">
         <v>10</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1304,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -1145,7 +1312,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -1169,88 +1336,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1</v>
       </c>
       <c r="B14" s="9">
-        <f>SUM(B2:M2)</f>
-        <v>103.57307060755338</v>
+        <f>SUM(B2:S2)</f>
+        <v>131.07307060755338</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11">
         <f>(B14*45)/B11</f>
-        <v>38.83990147783252</v>
+        <v>49.15240147783252</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="6">
         <f>D14+E14+F14</f>
-        <v>38.83990147783252</v>
+        <v>52.65240147783252</v>
       </c>
       <c r="H14" s="10">
         <f>((G14-G23)*50)/(G24-G23)+50</f>
-        <v>79.611267350086194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <v>82.971868821879667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="9">
-        <f>SUM(B3:M3)</f>
-        <v>79.38095238095238</v>
+        <f t="shared" ref="B15:B22" si="2">SUM(B3:S3)</f>
+        <v>109.88095238095238</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11">
         <f>(B15*45)/B11</f>
-        <v>29.767857142857142</v>
+        <v>41.205357142857139</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="6">
         <f>D15+E15+F15</f>
-        <v>29.767857142857142</v>
+        <v>44.205357142857139</v>
       </c>
       <c r="H15" s="10">
         <f>((G15-G23)*50)/(G24-G23)+50</f>
-        <v>66.245577429012059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>73.961747377685526</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
       <c r="B16" s="9">
-        <f>SUM(B4:M4)</f>
-        <v>105.61986863711002</v>
+        <f t="shared" si="2"/>
+        <v>167.61986863711002</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11">
         <f>(B16*45)/B11</f>
-        <v>39.607450738916256</v>
+        <v>62.857450738916256</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="6">
         <f>D16+E16+F16</f>
-        <v>39.607450738916256</v>
+        <v>67.857450738916256</v>
       </c>
       <c r="H16" s="10">
         <f>((G16-G23)*50)/(G24-G23)+50</f>
-        <v>80.742084731924152</v>
+        <v>99.190481507510626</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1258,7 +1425,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="9">
-        <f>SUM(B5:M5)</f>
+        <f t="shared" si="2"/>
         <v>49.976190476190482</v>
       </c>
       <c r="C17" s="9"/>
@@ -1267,14 +1434,14 @@
         <v>18.741071428571431</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="6">
         <f>D17+E17+F17</f>
-        <v>18.741071428571431</v>
+        <v>21.741071428571431</v>
       </c>
       <c r="H17" s="10">
         <f>((G17-G23)*50)/(G24-G23)+50</f>
@@ -1286,23 +1453,23 @@
         <v>5</v>
       </c>
       <c r="B18" s="9">
-        <f>SUM(B6:M6)</f>
-        <v>111.14367816091955</v>
+        <f t="shared" si="2"/>
+        <v>141.64367816091954</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="11">
         <f>(B18*45)/B11</f>
-        <v>41.678879310344833</v>
+        <v>53.116379310344819</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18" si="2">D18+E18+F18+M6</f>
-        <v>52.678879310344833</v>
+        <f t="shared" ref="G18" si="3">D18+E18+F18+M6</f>
+        <v>68.616379310344826</v>
       </c>
       <c r="H18" s="10">
         <f>((G18-G23)*50)/(G24-G23)+50</f>
@@ -1314,27 +1481,27 @@
         <v>6</v>
       </c>
       <c r="B19" s="9">
-        <f>SUM(B7:M7)</f>
-        <v>104.88177339901479</v>
+        <f t="shared" si="2"/>
+        <v>128.88177339901478</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="11">
         <f>(B19*45)/B11</f>
-        <v>39.330665024630548</v>
+        <v>48.330665024630541</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="6">
         <f>D19+E19+F19</f>
-        <v>39.330665024630548</v>
+        <v>52.330665024630541</v>
       </c>
       <c r="H19" s="10">
         <f>((G19-G23)*50)/(G24-G23)+50</f>
-        <v>80.334301006985399</v>
+        <v>82.628685525875028</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1342,27 +1509,27 @@
         <v>7</v>
       </c>
       <c r="B20" s="9">
-        <f>SUM(B8:M8)</f>
-        <v>81.013957307060764</v>
+        <f t="shared" si="2"/>
+        <v>96.013957307060764</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="11">
         <f>(B20*45)/B11</f>
-        <v>30.38023399014779</v>
+        <v>36.005233990147786</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="6">
         <f>D20+E20+F20</f>
-        <v>30.38023399014779</v>
+        <v>39.505233990147786</v>
       </c>
       <c r="H20" s="10">
         <f>((G20-G23)*50)/(G24-G23)+50</f>
-        <v>67.147781910550663</v>
+        <v>68.948315610406496</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1370,27 +1537,27 @@
         <v>8</v>
       </c>
       <c r="B21" s="9">
-        <f>SUM(B9:M9)</f>
-        <v>104.76436781609196</v>
+        <f t="shared" si="2"/>
+        <v>147.26436781609198</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="11">
         <f>(B21*45)/B11</f>
-        <v>39.286637931034491</v>
+        <v>55.224137931034491</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="6">
         <f>D21+E21+F21</f>
-        <v>39.286637931034491</v>
+        <v>59.224137931034491</v>
       </c>
       <c r="H21" s="10">
         <f>((G21-G23)*50)/(G24-G23)+50</f>
-        <v>80.269436632495697</v>
+        <v>89.981674997208572</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,27 +1565,27 @@
         <v>9</v>
       </c>
       <c r="B22" s="9">
-        <f>SUM(B10:M10)</f>
-        <v>105.29885057471265</v>
+        <f t="shared" si="2"/>
+        <v>110.29885057471265</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="11">
         <f>(B22*45)/B11</f>
-        <v>39.487068965517238</v>
+        <v>41.362068965517238</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22" s="6">
         <f>D22+E22+F22</f>
-        <v>39.487068965517238</v>
+        <v>45.362068965517238</v>
       </c>
       <c r="H22" s="10">
         <f>((G22-G23)*50)/(G24-G23)+50</f>
-        <v>80.564728295382366</v>
+        <v>75.195565217962439</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,7 +1594,7 @@
       </c>
       <c r="G23" s="8">
         <f>MIN(G14:G22)</f>
-        <v>18.741071428571431</v>
+        <v>21.741071428571431</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1436,7 +1603,7 @@
       </c>
       <c r="G24" s="8">
         <f>MAX(G14:G22)</f>
-        <v>52.678879310344833</v>
+        <v>68.616379310344826</v>
       </c>
     </row>
   </sheetData>

--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -619,25 +619,25 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125"/>
-    <col min="8" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" customWidth="1"/>
-    <col min="13" max="16" width="9.5703125" customWidth="1"/>
-    <col min="17" max="1026" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625"/>
+    <col min="8" max="10" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5546875" customWidth="1"/>
+    <col min="13" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="1026" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1295,16 +1295,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="11">
         <f>(B14*45)/B11</f>
-        <v>49.15240147783252</v>
+        <v>32.768267651888344</v>
       </c>
       <c r="E14">
         <v>3.5</v>
@@ -1357,14 +1357,14 @@
       </c>
       <c r="G14" s="6">
         <f>D14+E14+F14</f>
-        <v>52.65240147783252</v>
+        <v>36.268267651888344</v>
       </c>
       <c r="H14" s="10">
         <f>((G14-G23)*50)/(G24-G23)+50</f>
-        <v>82.971868821879667</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>83.06846844492074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>2</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="11">
         <f>(B15*45)/B11</f>
-        <v>41.205357142857139</v>
+        <v>27.470238095238095</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1385,14 +1385,14 @@
       </c>
       <c r="G15" s="6">
         <f>D15+E15+F15</f>
-        <v>44.205357142857139</v>
+        <v>30.470238095238095</v>
       </c>
       <c r="H15" s="10">
         <f>((G15-G23)*50)/(G24-G23)+50</f>
-        <v>73.961747377685526</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>73.83914685625416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="11">
         <f>(B16*45)/B11</f>
-        <v>62.857450738916256</v>
+        <v>41.904967159277504</v>
       </c>
       <c r="E16">
         <v>5</v>
@@ -1413,14 +1413,14 @@
       </c>
       <c r="G16" s="6">
         <f>D16+E16+F16</f>
-        <v>67.857450738916256</v>
+        <v>46.904967159277504</v>
       </c>
       <c r="H16" s="10">
         <f>((G16-G23)*50)/(G24-G23)+50</f>
-        <v>99.190481507510626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>4</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="11">
         <f>(B17*45)/B11</f>
-        <v>18.741071428571431</v>
+        <v>12.49404761904762</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1441,14 +1441,14 @@
       </c>
       <c r="G17" s="6">
         <f>D17+E17+F17</f>
-        <v>21.741071428571431</v>
+        <v>15.49404761904762</v>
       </c>
       <c r="H17" s="10">
         <f>((G17-G23)*50)/(G24-G23)+50</f>
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>5</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="11">
         <f>(B18*45)/B11</f>
-        <v>53.116379310344819</v>
+        <v>35.410919540229884</v>
       </c>
       <c r="E18">
         <v>4.5</v>
@@ -1468,15 +1468,15 @@
         <v>0</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18" si="3">D18+E18+F18+M6</f>
-        <v>68.616379310344826</v>
+        <f>D18+E18+F18</f>
+        <v>39.910919540229884</v>
       </c>
       <c r="H18" s="10">
         <f>((G18-G23)*50)/(G24-G23)+50</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>88.86685311760786</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>6</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="11">
         <f>(B19*45)/B11</f>
-        <v>48.330665024630541</v>
+        <v>32.220443349753694</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -1497,14 +1497,14 @@
       </c>
       <c r="G19" s="6">
         <f>D19+E19+F19</f>
-        <v>52.330665024630541</v>
+        <v>36.220443349753694</v>
       </c>
       <c r="H19" s="10">
         <f>((G19-G23)*50)/(G24-G23)+50</f>
-        <v>82.628685525875028</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>82.992341571154128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>7</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="11">
         <f>(B20*45)/B11</f>
-        <v>36.005233990147786</v>
+        <v>24.003489326765191</v>
       </c>
       <c r="E20">
         <v>3.5</v>
@@ -1524,15 +1524,15 @@
         <v>0</v>
       </c>
       <c r="G20" s="6">
-        <f>D20+E20+F20</f>
-        <v>39.505233990147786</v>
+        <f t="shared" ref="G14:G22" si="3">D20+E20+F20</f>
+        <v>27.503489326765191</v>
       </c>
       <c r="H20" s="10">
         <f>((G20-G23)*50)/(G24-G23)+50</f>
-        <v>68.948315610406496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69.11666688448318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>8</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="11">
         <f>(B21*45)/B11</f>
-        <v>55.224137931034491</v>
+        <v>36.816091954022994</v>
       </c>
       <c r="E21">
         <v>4</v>
@@ -1553,14 +1553,14 @@
       </c>
       <c r="G21" s="6">
         <f>D21+E21+F21</f>
-        <v>59.224137931034491</v>
+        <v>40.816091954022994</v>
       </c>
       <c r="H21" s="10">
         <f>((G21-G23)*50)/(G24-G23)+50</f>
-        <v>89.981674997208572</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90.30770939791158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>9</v>
       </c>
@@ -1571,7 +1571,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="11">
         <f>(B22*45)/B11</f>
-        <v>41.362068965517238</v>
+        <v>27.574712643678161</v>
       </c>
       <c r="E22">
         <v>4</v>
@@ -1581,29 +1581,29 @@
       </c>
       <c r="G22" s="6">
         <f>D22+E22+F22</f>
-        <v>45.362068965517238</v>
+        <v>31.574712643678161</v>
       </c>
       <c r="H22" s="10">
         <f>((G22-G23)*50)/(G24-G23)+50</f>
-        <v>75.195565217962439</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>75.597252898048794</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="8">
         <f>MIN(G14:G22)</f>
-        <v>21.741071428571431</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15.49404761904762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="8">
         <f>MAX(G14:G22)</f>
-        <v>68.616379310344826</v>
+        <v>46.904967159277504</v>
       </c>
     </row>
   </sheetData>

--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -619,25 +619,25 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625"/>
-    <col min="8" max="10" width="9.5546875" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="1"/>
-    <col min="13" max="16" width="9.5546875" customWidth="1"/>
-    <col min="17" max="1026" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125"/>
+    <col min="8" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="1"/>
+    <col min="13" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,7 +696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -895,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -933,34 +933,34 @@
         <v>3.333333333333333</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="M5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="P5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="R5" s="1">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="S5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1312,7 @@
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>1</v>
       </c>
@@ -1356,20 +1356,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="6">
-        <f>D14+E14+F14</f>
+        <f t="shared" ref="G14:G19" si="2">D14+E14+F14</f>
         <v>36.268267651888344</v>
       </c>
       <c r="H14" s="10">
         <f>((G14-G23)*50)/(G24-G23)+50</f>
-        <v>83.06846844492074</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+        <v>52.921411762301055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>2</v>
       </c>
       <c r="B15" s="9">
-        <f t="shared" ref="B15:B22" si="2">SUM(B3:S3)</f>
+        <f t="shared" ref="B15:B22" si="3">SUM(B3:S3)</f>
         <v>109.88095238095238</v>
       </c>
       <c r="C15" s="9"/>
@@ -1381,23 +1381,23 @@
         <v>3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G15" s="6">
-        <f>D15+E15+F15</f>
-        <v>30.470238095238095</v>
+        <f t="shared" si="2"/>
+        <v>75.470238095238102</v>
       </c>
       <c r="H15" s="10">
         <f>((G15-G23)*50)/(G24-G23)+50</f>
-        <v>73.83914685625416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+        <v>77.321913590499008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>3</v>
       </c>
       <c r="B16" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167.61986863711002</v>
       </c>
       <c r="C16" s="9"/>
@@ -1409,51 +1409,51 @@
         <v>5</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G16" s="6">
-        <f>D16+E16+F16</f>
-        <v>46.904967159277504</v>
+        <f t="shared" si="2"/>
+        <v>111.9049671592775</v>
       </c>
       <c r="H16" s="10">
         <f>((G16-G23)*50)/(G24-G23)+50</f>
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>4</v>
       </c>
       <c r="B17" s="9">
-        <f t="shared" si="2"/>
-        <v>49.976190476190482</v>
+        <f t="shared" si="3"/>
+        <v>90.476190476190482</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="11">
         <f>(B17*45)/B11</f>
-        <v>12.49404761904762</v>
+        <v>22.61904761904762</v>
       </c>
       <c r="E17">
         <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6">
-        <f>D17+E17+F17</f>
-        <v>15.49404761904762</v>
+        <f t="shared" si="2"/>
+        <v>55.61904761904762</v>
       </c>
       <c r="H17" s="10">
         <f>((G17-G23)*50)/(G24-G23)+50</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64.965927296234497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>5</v>
       </c>
       <c r="B18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>141.64367816091954</v>
       </c>
       <c r="C18" s="9"/>
@@ -1465,23 +1465,23 @@
         <v>4.5</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G18" s="6">
-        <f>D18+E18+F18</f>
-        <v>39.910919540229884</v>
+        <f t="shared" si="2"/>
+        <v>99.910919540229884</v>
       </c>
       <c r="H18" s="10">
         <f>((G18-G23)*50)/(G24-G23)+50</f>
-        <v>88.86685311760786</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>92.534539015609312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>6</v>
       </c>
       <c r="B19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128.88177339901478</v>
       </c>
       <c r="C19" s="9"/>
@@ -1493,23 +1493,23 @@
         <v>4</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G19" s="6">
-        <f>D19+E19+F19</f>
-        <v>36.220443349753694</v>
+        <f t="shared" si="2"/>
+        <v>81.220443349753694</v>
       </c>
       <c r="H19" s="10">
         <f>((G19-G23)*50)/(G24-G23)+50</f>
-        <v>82.992341571154128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80.901016687576174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>7</v>
       </c>
       <c r="B20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>96.013957307060764</v>
       </c>
       <c r="C20" s="9"/>
@@ -1521,23 +1521,23 @@
         <v>3.5</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" ref="G14:G22" si="3">D20+E20+F20</f>
-        <v>27.503489326765191</v>
+        <f t="shared" ref="G20" si="4">D20+E20+F20</f>
+        <v>82.503489326765191</v>
       </c>
       <c r="H20" s="10">
         <f>((G20-G23)*50)/(G24-G23)+50</f>
-        <v>69.11666688448318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81.699623628851555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>8</v>
       </c>
       <c r="B21" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147.26436781609198</v>
       </c>
       <c r="C21" s="9"/>
@@ -1549,23 +1549,23 @@
         <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G21" s="6">
         <f>D21+E21+F21</f>
-        <v>40.816091954022994</v>
+        <v>95.816091954022994</v>
       </c>
       <c r="H21" s="10">
         <f>((G21-G23)*50)/(G24-G23)+50</f>
-        <v>90.30770939791158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89.985793458347501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>9</v>
       </c>
       <c r="B22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110.29885057471265</v>
       </c>
       <c r="C22" s="9"/>
@@ -1585,25 +1585,25 @@
       </c>
       <c r="H22" s="10">
         <f>((G22-G23)*50)/(G24-G23)+50</f>
-        <v>75.597252898048794</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F23" s="8" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="8">
         <f>MIN(G14:G22)</f>
-        <v>15.49404761904762</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31.574712643678161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F24" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="8">
         <f>MAX(G14:G22)</f>
-        <v>46.904967159277504</v>
+        <v>111.9049671592775</v>
       </c>
     </row>
   </sheetData>

--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="H14" s="10">
         <f>((G14-G23)*50)/(G24-G23)+50</f>
-        <v>52.921411762301055</v>
+        <v>53.429693311895562</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="H15" s="10">
         <f>((G15-G23)*50)/(G24-G23)+50</f>
-        <v>77.321913590499008</v>
+        <v>82.075514146528775</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="H16" s="10">
         <f>((G16-G23)*50)/(G24-G23)+50</f>
-        <v>100</v>
+        <v>108.69924527849105</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="H17" s="10">
         <f>((G17-G23)*50)/(G24-G23)+50</f>
-        <v>64.965927296234497</v>
+        <v>67.569772743634672</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1468,12 +1468,12 @@
         <v>60</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
+        <f>D18+E18+F18</f>
         <v>99.910919540229884</v>
       </c>
       <c r="H18" s="10">
         <f>((G18-G23)*50)/(G24-G23)+50</f>
-        <v>92.534539015609312</v>
+        <v>99.934906769695942</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="H19" s="10">
         <f>((G19-G23)*50)/(G24-G23)+50</f>
-        <v>80.901016687576174</v>
+        <v>86.277327157975577</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="H20" s="10">
         <f>((G20-G23)*50)/(G24-G23)+50</f>
-        <v>81.699623628851555</v>
+        <v>87.214879652516146</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="H21" s="10">
         <f>((G21-G23)*50)/(G24-G23)+50</f>
-        <v>89.985793458347501</v>
+        <v>96.942717957332434</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1602,8 +1602,8 @@
         <v>8</v>
       </c>
       <c r="G24" s="8">
-        <f>MAX(G14:G22)</f>
-        <v>111.9049671592775</v>
+        <f>IF(MAX(G14:G22) &gt; 100, 100, MAX(G14:G22))</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/109/109.xlsx
+++ b/109/109.xlsx
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,13 +754,13 @@
         <v>8.5</v>
       </c>
       <c r="Q2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1342,26 +1342,26 @@
       </c>
       <c r="B14" s="9">
         <f>SUM(B2:S2)</f>
-        <v>131.07307060755338</v>
+        <v>146.07307060755338</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11">
         <f>(B14*45)/B11</f>
-        <v>32.768267651888344</v>
+        <v>36.518267651888344</v>
       </c>
       <c r="E14">
         <v>3.5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" ref="G14:G19" si="2">D14+E14+F14</f>
-        <v>36.268267651888344</v>
+        <v>95.018267651888351</v>
       </c>
       <c r="H14" s="10">
         <f>((G14-G23)*50)/(G24-G23)+50</f>
-        <v>53.429693311895562</v>
+        <v>96.35972858822683</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1437,15 +1437,15 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>55.61904761904762</v>
+        <v>60.61904761904762</v>
       </c>
       <c r="H17" s="10">
         <f>((G17-G23)*50)/(G24-G23)+50</f>
-        <v>67.569772743634672</v>
+        <v>71.22339276715222</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
